--- a/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-210_業務ルール定義(サンプル＆ガイド).xlsx
+++ b/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-210_業務ルール定義(サンプル＆ガイド).xlsx
@@ -17,7 +17,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AI$40</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1078,16 +1078,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t xml:space="preserve">この 作品 は </t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1262,6 +1252,13 @@
     </rPh>
     <rPh sb="45" eb="47">
       <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4155,9 +4152,7 @@
       <c r="G31" s="20"/>
       <c r="H31" s="17"/>
       <c r="J31" s="21"/>
-      <c r="R31" s="22" t="s">
-        <v>85</v>
-      </c>
+      <c r="R31" s="22"/>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="17"/>
@@ -4197,20 +4192,24 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="29" t="s">
         <v>86</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>87</v>
       </c>
       <c r="O39" s="26"/>
       <c r="P39" s="26"/>
       <c r="Q39" s="27"/>
       <c r="R39" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S39" s="26"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
     <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4685,7 +4684,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -4715,7 +4714,7 @@
     <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
       <c r="B3" s="30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4727,7 +4726,7 @@
     <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="32"/>
       <c r="B5" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4760,7 +4759,7 @@
     </row>
     <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -5140,7 +5139,7 @@
     <row r="30" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="31"/>
       <c r="C30" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
@@ -5388,7 +5387,7 @@
       <c r="G36" s="37"/>
       <c r="H36" s="38"/>
       <c r="I36" s="36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J36" s="37"/>
       <c r="K36" s="37"/>

--- a/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-210_業務ルール定義(サンプル＆ガイド).xlsx
+++ b/original/5-6_業務要件定義/6_業務要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DG-210_業務ルール定義(サンプル＆ガイド).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2C0E9F-2B82-4CD9-A01C-4282DA2C1831}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="10575" windowHeight="5700"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="17850" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
@@ -17,12 +18,22 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AI$40</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="90">
   <si>
     <t>記述内容</t>
     <rPh sb="0" eb="2">
@@ -1078,17 +1089,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
-  </si>
-  <si>
     <t>業務階層定義に定義された業務に適用される、 事実・制約・計算・判断・契機などの業務ルールを定義する。</t>
     <rPh sb="0" eb="2">
       <t>ギョウム</t>
@@ -1252,13 +1252,6 @@
     </rPh>
     <rPh sb="45" eb="47">
       <t>ハンエイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1266,7 +1259,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -1827,15 +1820,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1848,7 +1838,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1856,11 +1846,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1889,11 +1876,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1974,6 +1967,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1995,7 +1991,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2093,52 +2095,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>94137</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6715125"/>
-          <a:ext cx="838200" cy="265587"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2159,7 +2115,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2246,7 +2208,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2328,7 +2296,13 @@
     <xdr:ext cx="1210588" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2405,7 +2379,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2464,7 +2444,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="カギ線コネクタ 5"/>
+        <xdr:cNvPr id="6" name="カギ線コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -2509,7 +2495,13 @@
     <xdr:ext cx="1107996" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 11"/>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2573,7 +2565,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2655,7 +2653,13 @@
     <xdr:ext cx="1210588" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="テキスト ボックス 24"/>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2732,7 +2736,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2819,7 +2829,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2901,7 +2917,13 @@
     <xdr:ext cx="1313180" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="テキスト ボックス 28"/>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2978,7 +3000,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="カギ線コネクタ 29"/>
+        <xdr:cNvPr id="30" name="カギ線コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="26" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -3028,7 +3056,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="カギ線コネクタ 32"/>
+        <xdr:cNvPr id="33" name="カギ線コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="28" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -3073,7 +3107,13 @@
     <xdr:ext cx="1313180" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="テキスト ボックス 49"/>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3150,7 +3190,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3237,7 +3283,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="カギ線コネクタ 18"/>
+        <xdr:cNvPr id="19" name="カギ線コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="18" idx="3"/>
           <a:endCxn id="3" idx="1"/>
@@ -3282,7 +3334,13 @@
     <xdr:ext cx="697627" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3346,7 +3404,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線矢印コネクタ 9"/>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="2" idx="2"/>
           <a:endCxn id="3" idx="0"/>
@@ -3396,7 +3460,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3483,7 +3553,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="カギ線コネクタ 7"/>
+        <xdr:cNvPr id="8" name="カギ線コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="21" idx="1"/>
@@ -3533,7 +3609,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="カギ線コネクタ 23"/>
+        <xdr:cNvPr id="24" name="カギ線コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="3" idx="3"/>
           <a:endCxn id="15" idx="1"/>
@@ -3578,7 +3660,13 @@
     <xdr:ext cx="902811" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="テキスト ボックス 30"/>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3647,7 +3735,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="線吹き出し 1 (枠付き) 1"/>
+        <xdr:cNvPr id="2" name="線吹き出し 1 (枠付き) 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3772,7 +3866,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3814,7 +3908,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3847,9 +3941,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3882,6 +3993,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4057,7 +4185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4166,58 +4294,47 @@
       <c r="R32" s="25"/>
       <c r="S32" s="26"/>
     </row>
-    <row r="33" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="23"/>
       <c r="P36" s="23"/>
       <c r="Q36" s="26"/>
       <c r="R36" s="26"/>
       <c r="S36" s="26"/>
     </row>
-    <row r="37" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="27"/>
       <c r="P37" s="26"/>
       <c r="Q37" s="27"/>
       <c r="R37" s="26"/>
       <c r="S37" s="28"/>
     </row>
-    <row r="38" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="27"/>
       <c r="P38" s="26"/>
       <c r="Q38" s="27"/>
       <c r="R38" s="26"/>
       <c r="S38" s="27"/>
     </row>
-    <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" s="29" t="s">
-        <v>86</v>
-      </c>
+    <row r="39" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="29"/>
       <c r="O39" s="26"/>
       <c r="P39" s="26"/>
       <c r="Q39" s="27"/>
-      <c r="R39" s="27" t="s">
-        <v>87</v>
-      </c>
+      <c r="R39" s="27"/>
       <c r="S39" s="26"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4680,17 +4797,14 @@
     <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="E39" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4714,7 +4828,7 @@
     <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="32"/>
       <c r="B3" s="30" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4726,7 +4840,7 @@
     <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="32"/>
       <c r="B5" s="30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4759,7 +4873,7 @@
     </row>
     <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="30" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -5139,7 +5253,7 @@
     <row r="30" spans="2:34" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="31"/>
       <c r="C30" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
@@ -5387,7 +5501,7 @@
       <c r="G36" s="37"/>
       <c r="H36" s="38"/>
       <c r="I36" s="36" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J36" s="37"/>
       <c r="K36" s="37"/>
@@ -5422,18 +5536,12 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="I23:Y23"/>
-    <mergeCell ref="Z23:AH23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="I24:Y24"/>
-    <mergeCell ref="Z24:AH24"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="I21:Y21"/>
-    <mergeCell ref="Z21:AH21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="I22:Y22"/>
-    <mergeCell ref="Z22:AH22"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="I25:Y25"/>
+    <mergeCell ref="Z25:AH25"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="I26:Y26"/>
+    <mergeCell ref="Z26:AH26"/>
     <mergeCell ref="I36:Y36"/>
     <mergeCell ref="Z36:AH36"/>
     <mergeCell ref="C32:H32"/>
@@ -5449,12 +5557,18 @@
     <mergeCell ref="I35:Y35"/>
     <mergeCell ref="Z35:AH35"/>
     <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="I25:Y25"/>
-    <mergeCell ref="Z25:AH25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="I26:Y26"/>
-    <mergeCell ref="Z26:AH26"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="I21:Y21"/>
+    <mergeCell ref="Z21:AH21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="I22:Y22"/>
+    <mergeCell ref="Z22:AH22"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="I23:Y23"/>
+    <mergeCell ref="Z23:AH23"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="I24:Y24"/>
+    <mergeCell ref="Z24:AH24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -5471,7 +5585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AH61"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -5493,13 +5607,13 @@
     </row>
     <row r="5" spans="1:34" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="51" t="s">
         <v>56</v>
       </c>
       <c r="C5" s="52"/>
       <c r="D5" s="52"/>
       <c r="E5" s="53"/>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="51" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="52"/>
@@ -5507,7 +5621,7 @@
       <c r="I5" s="52"/>
       <c r="J5" s="52"/>
       <c r="K5" s="53"/>
-      <c r="L5" s="54" t="s">
+      <c r="L5" s="51" t="s">
         <v>11</v>
       </c>
       <c r="M5" s="52"/>
@@ -5524,12 +5638,12 @@
       <c r="X5" s="52"/>
       <c r="Y5" s="52"/>
       <c r="Z5" s="53"/>
-      <c r="AA5" s="51" t="s">
+      <c r="AA5" s="70" t="s">
         <v>68</v>
       </c>
       <c r="AB5" s="52"/>
       <c r="AC5" s="53"/>
-      <c r="AD5" s="54" t="s">
+      <c r="AD5" s="51" t="s">
         <v>69</v>
       </c>
       <c r="AE5" s="52"/>
@@ -5539,49 +5653,49 @@
     </row>
     <row r="6" spans="1:34" s="3" customFormat="1" ht="36" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="73" t="s">
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="73" t="s">
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="M6" s="59"/>
-      <c r="N6" s="59"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="59"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="59"/>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="55" t="s">
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="59"/>
+      <c r="AA6" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="AB6" s="56"/>
-      <c r="AC6" s="57"/>
-      <c r="AD6" s="58" t="s">
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="56"/>
+      <c r="AD6" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="AE6" s="59"/>
-      <c r="AF6" s="59"/>
-      <c r="AG6" s="59"/>
-      <c r="AH6" s="60"/>
+      <c r="AE6" s="58"/>
+      <c r="AF6" s="58"/>
+      <c r="AG6" s="58"/>
+      <c r="AH6" s="59"/>
     </row>
     <row r="7" spans="1:34" s="3" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
@@ -5616,12 +5730,12 @@
       <c r="X7" s="49"/>
       <c r="Y7" s="49"/>
       <c r="Z7" s="50"/>
-      <c r="AA7" s="61" t="s">
+      <c r="AA7" s="72" t="s">
         <v>71</v>
       </c>
       <c r="AB7" s="46"/>
       <c r="AC7" s="47"/>
-      <c r="AD7" s="62" t="s">
+      <c r="AD7" s="73" t="s">
         <v>72</v>
       </c>
       <c r="AE7" s="49"/>
@@ -6066,7 +6180,7 @@
       </c>
     </row>
     <row r="45" spans="4:24" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E45" s="54" t="s">
+      <c r="E45" s="51" t="s">
         <v>52</v>
       </c>
       <c r="F45" s="52"/>
@@ -6075,7 +6189,7 @@
       <c r="I45" s="52"/>
       <c r="J45" s="52"/>
       <c r="K45" s="52"/>
-      <c r="L45" s="72"/>
+      <c r="L45" s="60"/>
       <c r="M45" s="13">
         <v>1</v>
       </c>
@@ -6114,18 +6228,18 @@
       </c>
     </row>
     <row r="46" spans="4:24" s="7" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="E46" s="63" t="s">
+      <c r="E46" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="F46" s="63"/>
-      <c r="G46" s="65" t="s">
+      <c r="F46" s="61"/>
+      <c r="G46" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="H46" s="65"/>
-      <c r="I46" s="65"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="65"/>
-      <c r="L46" s="66"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="63"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="64"/>
       <c r="M46" s="11" t="s">
         <v>47</v>
       </c>
@@ -6164,16 +6278,16 @@
       </c>
     </row>
     <row r="47" spans="4:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E47" s="64"/>
-      <c r="F47" s="64"/>
-      <c r="G47" s="67" t="s">
+      <c r="E47" s="62"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="H47" s="67"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="67"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="68"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="66"/>
       <c r="M47" s="12" t="s">
         <v>48</v>
       </c>
@@ -6212,16 +6326,16 @@
       </c>
     </row>
     <row r="48" spans="4:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E48" s="64"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="67" t="s">
+      <c r="E48" s="62"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="H48" s="67"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="67"/>
-      <c r="K48" s="67"/>
-      <c r="L48" s="68"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="66"/>
       <c r="M48" s="12" t="s">
         <v>49</v>
       </c>
@@ -6260,16 +6374,16 @@
       </c>
     </row>
     <row r="49" spans="4:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="67" t="s">
+      <c r="E49" s="62"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="H49" s="67"/>
-      <c r="I49" s="67"/>
-      <c r="J49" s="67"/>
-      <c r="K49" s="67"/>
-      <c r="L49" s="68"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="66"/>
       <c r="M49" s="12" t="s">
         <v>49</v>
       </c>
@@ -6308,16 +6422,16 @@
       </c>
     </row>
     <row r="50" spans="4:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E50" s="64"/>
-      <c r="F50" s="64"/>
-      <c r="G50" s="67" t="s">
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="H50" s="67"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="67"/>
-      <c r="K50" s="67"/>
-      <c r="L50" s="68"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="65"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="66"/>
       <c r="M50" s="12" t="s">
         <v>49</v>
       </c>
@@ -6356,16 +6470,16 @@
       </c>
     </row>
     <row r="51" spans="4:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E51" s="64"/>
-      <c r="F51" s="64"/>
-      <c r="G51" s="67" t="s">
+      <c r="E51" s="62"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="H51" s="67"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="67"/>
-      <c r="K51" s="67"/>
-      <c r="L51" s="68"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="66"/>
       <c r="M51" s="12" t="s">
         <v>49</v>
       </c>
@@ -6404,16 +6518,16 @@
       </c>
     </row>
     <row r="52" spans="4:24" s="7" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="69" t="s">
+      <c r="E52" s="69"/>
+      <c r="F52" s="69"/>
+      <c r="G52" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="H52" s="69"/>
-      <c r="I52" s="69"/>
-      <c r="J52" s="69"/>
-      <c r="K52" s="69"/>
-      <c r="L52" s="70"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="67"/>
+      <c r="J52" s="67"/>
+      <c r="K52" s="67"/>
+      <c r="L52" s="68"/>
       <c r="M52" s="10" t="s">
         <v>49</v>
       </c>
@@ -6452,18 +6566,18 @@
       </c>
     </row>
     <row r="53" spans="4:24" s="7" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="E53" s="63" t="s">
+      <c r="E53" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="F53" s="63"/>
-      <c r="G53" s="65" t="s">
+      <c r="F53" s="61"/>
+      <c r="G53" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="H53" s="65"/>
-      <c r="I53" s="65"/>
-      <c r="J53" s="65"/>
-      <c r="K53" s="65"/>
-      <c r="L53" s="66"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="63"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="63"/>
+      <c r="L53" s="64"/>
       <c r="M53" s="11" t="s">
         <v>49</v>
       </c>
@@ -6502,16 +6616,16 @@
       </c>
     </row>
     <row r="54" spans="4:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E54" s="64"/>
-      <c r="F54" s="64"/>
-      <c r="G54" s="67" t="s">
+      <c r="E54" s="62"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="H54" s="67"/>
-      <c r="I54" s="67"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="67"/>
-      <c r="L54" s="68"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="65"/>
+      <c r="L54" s="66"/>
       <c r="M54" s="12" t="s">
         <v>51</v>
       </c>
@@ -6550,16 +6664,16 @@
       </c>
     </row>
     <row r="55" spans="4:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E55" s="64"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="67" t="s">
+      <c r="E55" s="62"/>
+      <c r="F55" s="62"/>
+      <c r="G55" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="H55" s="67"/>
-      <c r="I55" s="67"/>
-      <c r="J55" s="67"/>
-      <c r="K55" s="67"/>
-      <c r="L55" s="68"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="65"/>
+      <c r="K55" s="65"/>
+      <c r="L55" s="66"/>
       <c r="M55" s="12" t="s">
         <v>51</v>
       </c>
@@ -6598,16 +6712,16 @@
       </c>
     </row>
     <row r="56" spans="4:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E56" s="64"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="67" t="s">
+      <c r="E56" s="62"/>
+      <c r="F56" s="62"/>
+      <c r="G56" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="H56" s="67"/>
-      <c r="I56" s="67"/>
-      <c r="J56" s="67"/>
-      <c r="K56" s="67"/>
-      <c r="L56" s="68"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="65"/>
+      <c r="K56" s="65"/>
+      <c r="L56" s="66"/>
       <c r="M56" s="12" t="s">
         <v>51</v>
       </c>
@@ -6646,16 +6760,16 @@
       </c>
     </row>
     <row r="57" spans="4:24" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E57" s="64"/>
-      <c r="F57" s="64"/>
-      <c r="G57" s="67" t="s">
+      <c r="E57" s="62"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="67"/>
-      <c r="K57" s="67"/>
-      <c r="L57" s="68"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="65"/>
+      <c r="K57" s="65"/>
+      <c r="L57" s="66"/>
       <c r="M57" s="12" t="s">
         <v>51</v>
       </c>
@@ -6705,30 +6819,46 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="L7:Z7"/>
-    <mergeCell ref="L8:Z8"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="L5:Z5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="L6:Z6"/>
-    <mergeCell ref="E45:L45"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:K9"/>
-    <mergeCell ref="L9:Z9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:K10"/>
-    <mergeCell ref="L10:Z10"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="L15:Z15"/>
-    <mergeCell ref="F11:K11"/>
-    <mergeCell ref="L11:Z11"/>
-    <mergeCell ref="F14:K14"/>
-    <mergeCell ref="L14:Z14"/>
+    <mergeCell ref="AD13:AH13"/>
+    <mergeCell ref="AD14:AH14"/>
+    <mergeCell ref="AD15:AH15"/>
+    <mergeCell ref="AD16:AH16"/>
+    <mergeCell ref="AD17:AH17"/>
+    <mergeCell ref="AD8:AH8"/>
+    <mergeCell ref="AD9:AH9"/>
+    <mergeCell ref="AD10:AH10"/>
+    <mergeCell ref="AD11:AH11"/>
+    <mergeCell ref="AD12:AH12"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AD5:AH5"/>
+    <mergeCell ref="AA6:AC6"/>
+    <mergeCell ref="AD6:AH6"/>
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="AD7:AH7"/>
+    <mergeCell ref="E53:F57"/>
+    <mergeCell ref="G46:L46"/>
+    <mergeCell ref="G47:L47"/>
+    <mergeCell ref="G48:L48"/>
+    <mergeCell ref="G49:L49"/>
+    <mergeCell ref="G50:L50"/>
+    <mergeCell ref="G51:L51"/>
+    <mergeCell ref="G52:L52"/>
+    <mergeCell ref="G53:L53"/>
+    <mergeCell ref="G54:L54"/>
+    <mergeCell ref="G55:L55"/>
+    <mergeCell ref="G56:L56"/>
+    <mergeCell ref="G57:L57"/>
+    <mergeCell ref="E46:F52"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="AA14:AC14"/>
+    <mergeCell ref="AA15:AC15"/>
     <mergeCell ref="AA16:AC16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="F17:K17"/>
@@ -6745,46 +6875,30 @@
     <mergeCell ref="F13:K13"/>
     <mergeCell ref="L13:Z13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="AA14:AC14"/>
-    <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="E53:F57"/>
-    <mergeCell ref="G46:L46"/>
-    <mergeCell ref="G47:L47"/>
-    <mergeCell ref="G48:L48"/>
-    <mergeCell ref="G49:L49"/>
-    <mergeCell ref="G50:L50"/>
-    <mergeCell ref="G51:L51"/>
-    <mergeCell ref="G52:L52"/>
-    <mergeCell ref="G53:L53"/>
-    <mergeCell ref="G54:L54"/>
-    <mergeCell ref="G55:L55"/>
-    <mergeCell ref="G56:L56"/>
-    <mergeCell ref="G57:L57"/>
-    <mergeCell ref="E46:F52"/>
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AD5:AH5"/>
-    <mergeCell ref="AA6:AC6"/>
-    <mergeCell ref="AD6:AH6"/>
-    <mergeCell ref="AA7:AC7"/>
-    <mergeCell ref="AD7:AH7"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="AD8:AH8"/>
-    <mergeCell ref="AD9:AH9"/>
-    <mergeCell ref="AD10:AH10"/>
-    <mergeCell ref="AD11:AH11"/>
-    <mergeCell ref="AD12:AH12"/>
-    <mergeCell ref="AD13:AH13"/>
-    <mergeCell ref="AD14:AH14"/>
-    <mergeCell ref="AD15:AH15"/>
-    <mergeCell ref="AD16:AH16"/>
-    <mergeCell ref="AD17:AH17"/>
+    <mergeCell ref="E45:L45"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:K9"/>
+    <mergeCell ref="L9:Z9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:K10"/>
+    <mergeCell ref="L10:Z10"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="L15:Z15"/>
+    <mergeCell ref="F11:K11"/>
+    <mergeCell ref="L11:Z11"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="L14:Z14"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="L7:Z7"/>
+    <mergeCell ref="L8:Z8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="L5:Z5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="L6:Z6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
